--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hgf-St14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hgf-St14.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>8.265822</v>
+        <v>0.04510733333333333</v>
       </c>
       <c r="H2">
-        <v>24.797466</v>
+        <v>0.135322</v>
       </c>
       <c r="I2">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="J2">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7597586666666668</v>
+        <v>1.483864</v>
       </c>
       <c r="N2">
-        <v>2.279276</v>
+        <v>4.451592</v>
       </c>
       <c r="O2">
-        <v>0.3177111952105157</v>
+        <v>0.4831229533629666</v>
       </c>
       <c r="P2">
-        <v>0.3177111952105158</v>
+        <v>0.4831229533629666</v>
       </c>
       <c r="Q2">
-        <v>6.280029901624001</v>
+        <v>0.06693314806933333</v>
       </c>
       <c r="R2">
-        <v>56.52026911461601</v>
+        <v>0.602398332624</v>
       </c>
       <c r="S2">
-        <v>0.0661582337706621</v>
+        <v>0.0006510124633365987</v>
       </c>
       <c r="T2">
-        <v>0.06615823377066211</v>
+        <v>0.0006510124633365987</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>8.265822</v>
+        <v>0.04510733333333333</v>
       </c>
       <c r="H3">
-        <v>24.797466</v>
+        <v>0.135322</v>
       </c>
       <c r="I3">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="J3">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.874204</v>
       </c>
       <c r="O3">
-        <v>0.2612476913319534</v>
+        <v>0.2034038545501667</v>
       </c>
       <c r="P3">
-        <v>0.2612476913319534</v>
+        <v>0.2034038545501667</v>
       </c>
       <c r="Q3">
-        <v>5.163945551896</v>
+        <v>0.02818011485422222</v>
       </c>
       <c r="R3">
-        <v>46.475509967064</v>
+        <v>0.253621033688</v>
       </c>
       <c r="S3">
-        <v>0.05440061948000592</v>
+        <v>0.0002740884975162384</v>
       </c>
       <c r="T3">
-        <v>0.05440061948000592</v>
+        <v>0.0002740884975162384</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>8.265822</v>
+        <v>0.04510733333333333</v>
       </c>
       <c r="H4">
-        <v>24.797466</v>
+        <v>0.135322</v>
       </c>
       <c r="I4">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="J4">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6651113333333333</v>
+        <v>0.6102786666666665</v>
       </c>
       <c r="N4">
-        <v>1.995334</v>
+        <v>1.830836</v>
       </c>
       <c r="O4">
-        <v>0.2781321568709446</v>
+        <v>0.1986972066270314</v>
       </c>
       <c r="P4">
-        <v>0.2781321568709446</v>
+        <v>0.1986972066270314</v>
       </c>
       <c r="Q4">
-        <v>5.497691891515999</v>
+        <v>0.02752804324355555</v>
       </c>
       <c r="R4">
-        <v>49.47922702364399</v>
+        <v>0.247752389192</v>
       </c>
       <c r="S4">
-        <v>0.05791653719099848</v>
+        <v>0.0002677462477076347</v>
       </c>
       <c r="T4">
-        <v>0.05791653719099848</v>
+        <v>0.0002677462477076347</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>8.265822</v>
+        <v>0.04510733333333333</v>
       </c>
       <c r="H5">
-        <v>24.797466</v>
+        <v>0.135322</v>
       </c>
       <c r="I5">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="J5">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3417453333333333</v>
+        <v>0.352523</v>
       </c>
       <c r="N5">
-        <v>1.025236</v>
+        <v>1.057569</v>
       </c>
       <c r="O5">
-        <v>0.1429089565865864</v>
+        <v>0.1147759854598353</v>
       </c>
       <c r="P5">
-        <v>0.1429089565865864</v>
+        <v>0.1147759854598353</v>
       </c>
       <c r="Q5">
-        <v>2.824806094664</v>
+        <v>0.01590137246866666</v>
       </c>
       <c r="R5">
-        <v>25.423254851976</v>
+        <v>0.143112352218</v>
       </c>
       <c r="S5">
-        <v>0.02975848600963574</v>
+        <v>0.0001546616580851128</v>
       </c>
       <c r="T5">
-        <v>0.02975848600963575</v>
+        <v>0.0001546616580851128</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>33.85786</v>
       </c>
       <c r="I6">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="J6">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7597586666666668</v>
+        <v>1.483864</v>
       </c>
       <c r="N6">
-        <v>2.279276</v>
+        <v>4.451592</v>
       </c>
       <c r="O6">
-        <v>0.3177111952105157</v>
+        <v>0.4831229533629666</v>
       </c>
       <c r="P6">
-        <v>0.3177111952105158</v>
+        <v>0.4831229533629666</v>
       </c>
       <c r="Q6">
-        <v>8.574600856595557</v>
+        <v>16.74681985701333</v>
       </c>
       <c r="R6">
-        <v>77.17140770936001</v>
+        <v>150.72137871312</v>
       </c>
       <c r="S6">
-        <v>0.0903308514206391</v>
+        <v>0.1628847404110617</v>
       </c>
       <c r="T6">
-        <v>0.09033085142063911</v>
+        <v>0.1628847404110617</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>33.85786</v>
       </c>
       <c r="I7">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="J7">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.874204</v>
       </c>
       <c r="O7">
-        <v>0.2612476913319534</v>
+        <v>0.2034038545501667</v>
       </c>
       <c r="P7">
-        <v>0.2612476913319534</v>
+        <v>0.2034038545501667</v>
       </c>
       <c r="Q7">
         <v>7.050726293715556</v>
@@ -883,10 +883,10 @@
         <v>63.45653664344</v>
       </c>
       <c r="S7">
-        <v>0.07427728939188034</v>
+        <v>0.06857754080279001</v>
       </c>
       <c r="T7">
-        <v>0.07427728939188034</v>
+        <v>0.06857754080279001</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>33.85786</v>
       </c>
       <c r="I8">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="J8">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6651113333333333</v>
+        <v>0.6102786666666665</v>
       </c>
       <c r="N8">
-        <v>1.995334</v>
+        <v>1.830836</v>
       </c>
       <c r="O8">
-        <v>0.2781321568709446</v>
+        <v>0.1986972066270314</v>
       </c>
       <c r="P8">
-        <v>0.2781321568709446</v>
+        <v>0.1986972066270314</v>
       </c>
       <c r="Q8">
-        <v>7.50641546947111</v>
+        <v>6.887576552328888</v>
       </c>
       <c r="R8">
-        <v>67.55773922524</v>
+        <v>61.98818897096</v>
       </c>
       <c r="S8">
-        <v>0.07907783835241956</v>
+        <v>0.06699069604654392</v>
       </c>
       <c r="T8">
-        <v>0.07907783835241956</v>
+        <v>0.06699069604654392</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>33.85786</v>
       </c>
       <c r="I9">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="J9">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3417453333333333</v>
+        <v>0.352523</v>
       </c>
       <c r="N9">
-        <v>1.025236</v>
+        <v>1.057569</v>
       </c>
       <c r="O9">
-        <v>0.1429089565865864</v>
+        <v>0.1147759854598353</v>
       </c>
       <c r="P9">
-        <v>0.1429089565865864</v>
+        <v>0.1147759854598353</v>
       </c>
       <c r="Q9">
-        <v>3.856921883884445</v>
+        <v>3.978558126926667</v>
       </c>
       <c r="R9">
-        <v>34.71229695496</v>
+        <v>35.80702314234</v>
       </c>
       <c r="S9">
-        <v>0.04063151666892922</v>
+        <v>0.03869668469881925</v>
       </c>
       <c r="T9">
-        <v>0.04063151666892923</v>
+        <v>0.03869668469881925</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6276006666666666</v>
+        <v>0.8868746666666668</v>
       </c>
       <c r="H10">
-        <v>1.882802</v>
+        <v>2.660624</v>
       </c>
       <c r="I10">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="J10">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7597586666666668</v>
+        <v>1.483864</v>
       </c>
       <c r="N10">
-        <v>2.279276</v>
+        <v>4.451592</v>
       </c>
       <c r="O10">
-        <v>0.3177111952105157</v>
+        <v>0.4831229533629666</v>
       </c>
       <c r="P10">
-        <v>0.3177111952105158</v>
+        <v>0.4831229533629666</v>
       </c>
       <c r="Q10">
-        <v>0.4768250457057778</v>
+        <v>1.316001390378667</v>
       </c>
       <c r="R10">
-        <v>4.291425411352</v>
+        <v>11.844012513408</v>
       </c>
       <c r="S10">
-        <v>0.005023209019013077</v>
+        <v>0.01279983583048192</v>
       </c>
       <c r="T10">
-        <v>0.005023209019013077</v>
+        <v>0.01279983583048192</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6276006666666666</v>
+        <v>0.8868746666666668</v>
       </c>
       <c r="H11">
-        <v>1.882802</v>
+        <v>2.660624</v>
       </c>
       <c r="I11">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="J11">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.874204</v>
       </c>
       <c r="O11">
-        <v>0.2612476913319534</v>
+        <v>0.2034038545501667</v>
       </c>
       <c r="P11">
-        <v>0.2612476913319534</v>
+        <v>0.2034038545501667</v>
       </c>
       <c r="Q11">
-        <v>0.3920838932897777</v>
+        <v>0.5540613492551112</v>
       </c>
       <c r="R11">
-        <v>3.528755039608</v>
+        <v>4.986552143296</v>
       </c>
       <c r="S11">
-        <v>0.004130486363332209</v>
+        <v>0.005388971746025365</v>
       </c>
       <c r="T11">
-        <v>0.004130486363332209</v>
+        <v>0.005388971746025365</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6276006666666666</v>
+        <v>0.8868746666666668</v>
       </c>
       <c r="H12">
-        <v>1.882802</v>
+        <v>2.660624</v>
       </c>
       <c r="I12">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="J12">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6651113333333333</v>
+        <v>0.6102786666666665</v>
       </c>
       <c r="N12">
-        <v>1.995334</v>
+        <v>1.830836</v>
       </c>
       <c r="O12">
-        <v>0.2781321568709446</v>
+        <v>0.1986972066270314</v>
       </c>
       <c r="P12">
-        <v>0.2781321568709446</v>
+        <v>0.1986972066270314</v>
       </c>
       <c r="Q12">
-        <v>0.4174243162075555</v>
+        <v>0.5412406890737778</v>
       </c>
       <c r="R12">
-        <v>3.756818845867999</v>
+        <v>4.871166201664</v>
       </c>
       <c r="S12">
-        <v>0.004397440127805249</v>
+        <v>0.005264274046798583</v>
       </c>
       <c r="T12">
-        <v>0.004397440127805249</v>
+        <v>0.005264274046798583</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6276006666666666</v>
+        <v>0.8868746666666668</v>
       </c>
       <c r="H13">
-        <v>1.882802</v>
+        <v>2.660624</v>
       </c>
       <c r="I13">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="J13">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3417453333333333</v>
+        <v>0.352523</v>
       </c>
       <c r="N13">
-        <v>1.025236</v>
+        <v>1.057569</v>
       </c>
       <c r="O13">
-        <v>0.1429089565865864</v>
+        <v>0.1147759854598353</v>
       </c>
       <c r="P13">
-        <v>0.1429089565865864</v>
+        <v>0.1147759854598353</v>
       </c>
       <c r="Q13">
-        <v>0.2144795990302222</v>
+        <v>0.3126437181173334</v>
       </c>
       <c r="R13">
-        <v>1.930316391272</v>
+        <v>2.813793463056</v>
       </c>
       <c r="S13">
-        <v>0.002259478326370694</v>
+        <v>0.003040869329311163</v>
       </c>
       <c r="T13">
-        <v>0.002259478326370694</v>
+        <v>0.003040869329311163</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.51551966666667</v>
+        <v>21.25667433333333</v>
       </c>
       <c r="H14">
-        <v>58.546559</v>
+        <v>63.77002299999999</v>
       </c>
       <c r="I14">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215225</v>
       </c>
       <c r="J14">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215224</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7597586666666668</v>
+        <v>1.483864</v>
       </c>
       <c r="N14">
-        <v>2.279276</v>
+        <v>4.451592</v>
       </c>
       <c r="O14">
-        <v>0.3177111952105157</v>
+        <v>0.4831229533629666</v>
       </c>
       <c r="P14">
-        <v>0.3177111952105158</v>
+        <v>0.4831229533629666</v>
       </c>
       <c r="Q14">
-        <v>14.82708520125378</v>
+        <v>31.54201380295733</v>
       </c>
       <c r="R14">
-        <v>133.443766811284</v>
+        <v>283.878124226616</v>
       </c>
       <c r="S14">
-        <v>0.1561989010002015</v>
+        <v>0.3067873646580863</v>
       </c>
       <c r="T14">
-        <v>0.1561989010002015</v>
+        <v>0.3067873646580863</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.51551966666667</v>
+        <v>21.25667433333333</v>
       </c>
       <c r="H15">
-        <v>58.546559</v>
+        <v>63.77002299999999</v>
       </c>
       <c r="I15">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215225</v>
       </c>
       <c r="J15">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215224</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.874204</v>
       </c>
       <c r="O15">
-        <v>0.2612476913319534</v>
+        <v>0.2034038545501667</v>
       </c>
       <c r="P15">
-        <v>0.2612476913319534</v>
+        <v>0.2034038545501667</v>
       </c>
       <c r="Q15">
-        <v>12.19202167378178</v>
+        <v>13.27978135407689</v>
       </c>
       <c r="R15">
-        <v>109.728195064036</v>
+        <v>119.518032186692</v>
       </c>
       <c r="S15">
-        <v>0.1284392960967349</v>
+        <v>0.1291632535038351</v>
       </c>
       <c r="T15">
-        <v>0.1284392960967349</v>
+        <v>0.129163253503835</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.51551966666667</v>
+        <v>21.25667433333333</v>
       </c>
       <c r="H16">
-        <v>58.546559</v>
+        <v>63.77002299999999</v>
       </c>
       <c r="I16">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215225</v>
       </c>
       <c r="J16">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215224</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6651113333333333</v>
+        <v>0.6102786666666665</v>
       </c>
       <c r="N16">
-        <v>1.995334</v>
+        <v>1.830836</v>
       </c>
       <c r="O16">
-        <v>0.2781321568709446</v>
+        <v>0.1986972066270314</v>
       </c>
       <c r="P16">
-        <v>0.2781321568709446</v>
+        <v>0.1986972066270314</v>
       </c>
       <c r="Q16">
-        <v>12.97999330618955</v>
+        <v>12.97249486991422</v>
       </c>
       <c r="R16">
-        <v>116.819939755706</v>
+        <v>116.752453829228</v>
       </c>
       <c r="S16">
-        <v>0.1367403411997213</v>
+        <v>0.1261744902859813</v>
       </c>
       <c r="T16">
-        <v>0.1367403411997213</v>
+        <v>0.1261744902859813</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.51551966666667</v>
+        <v>21.25667433333333</v>
       </c>
       <c r="H17">
-        <v>58.546559</v>
+        <v>63.77002299999999</v>
       </c>
       <c r="I17">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215225</v>
       </c>
       <c r="J17">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215224</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3417453333333333</v>
+        <v>0.352523</v>
       </c>
       <c r="N17">
-        <v>1.025236</v>
+        <v>1.057569</v>
       </c>
       <c r="O17">
-        <v>0.1429089565865864</v>
+        <v>0.1147759854598353</v>
       </c>
       <c r="P17">
-        <v>0.1429089565865864</v>
+        <v>0.1147759854598353</v>
       </c>
       <c r="Q17">
-        <v>6.669337773658222</v>
+        <v>7.493466606009666</v>
       </c>
       <c r="R17">
-        <v>60.02403996292401</v>
+        <v>67.441199454087</v>
       </c>
       <c r="S17">
-        <v>0.0702594755816507</v>
+        <v>0.07288376977361981</v>
       </c>
       <c r="T17">
-        <v>0.07025947558165072</v>
+        <v>0.07288376977361979</v>
       </c>
     </row>
   </sheetData>
